--- a/templates/maintenance-kitchen.xlsx
+++ b/templates/maintenance-kitchen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Workbench\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\git tracked\move-forms-creator\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -220,14 +220,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -237,24 +234,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -273,13 +276,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -565,7 +571,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,89 +582,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" ht="322.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
